--- a/view/excel/DataStudentLate.xlsx
+++ b/view/excel/DataStudentLate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laragon_regina\www\regina_evaluation_rc\view\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57055CB-A796-406B-9217-1A703B6A851A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7CD52C-7CCA-416E-8ADF-4E61B6377EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1464" windowWidth="19080" windowHeight="11496" xr2:uid="{4B2ECFC9-5D6A-4ECD-AD68-AB90428F621F}"/>
+    <workbookView xWindow="2832" yWindow="444" windowWidth="17856" windowHeight="11496" xr2:uid="{4B2ECFC9-5D6A-4ECD-AD68-AB90428F621F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>เลขประจำตัว</t>
   </si>
   <si>
-    <t>วันที่สาย</t>
+    <t>วันที่สาย Ep.(05/11/2560)</t>
   </si>
 </sst>
 </file>
@@ -398,14 +398,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -421,5 +421,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>